--- a/melon.xlsx
+++ b/melon.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medici\파이썬베이스\ForU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A76112D-6032-4CE6-B20A-4076C1C8C47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F8B870-B5B2-486C-8871-54430B6EC087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F9CF4E35-647B-4BDD-BE07-63A3660DBF66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F9CF4E35-647B-4BDD-BE07-63A3660DBF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Movie_data" sheetId="1" r:id="rId1"/>
     <sheet name="Melon_data" sheetId="2" r:id="rId2"/>
+    <sheet name="song_gn_gnr_basket " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>Data columns (total 24 columns):</t>
   </si>
@@ -593,6 +594,180 @@
   </si>
   <si>
     <t>파이널 리더보드용 문제 파일로, 10,740개 플레이리스트에 대한 문제가 수록되어 있습니다. 모든 데이터가 수록되어있는 train 파일과는 다르게, 곡과 태그의 일부가 수록되어 있습니다.</t>
+  </si>
+  <si>
+    <t>gnr_code</t>
+  </si>
+  <si>
+    <t>GN0100</t>
+  </si>
+  <si>
+    <t>GN0200</t>
+  </si>
+  <si>
+    <t>GN0300</t>
+  </si>
+  <si>
+    <t>GN0400</t>
+  </si>
+  <si>
+    <t>GN0500</t>
+  </si>
+  <si>
+    <t>GN0600</t>
+  </si>
+  <si>
+    <t>GN0700</t>
+  </si>
+  <si>
+    <t>GN0800</t>
+  </si>
+  <si>
+    <t>GN0900</t>
+  </si>
+  <si>
+    <t>GN1000</t>
+  </si>
+  <si>
+    <t>GN2100</t>
+  </si>
+  <si>
+    <t>GN2200</t>
+  </si>
+  <si>
+    <t>GN2300</t>
+  </si>
+  <si>
+    <t>GN2400</t>
+  </si>
+  <si>
+    <t>GN2500</t>
+  </si>
+  <si>
+    <t>GN2600</t>
+  </si>
+  <si>
+    <t>GN2700</t>
+  </si>
+  <si>
+    <t>GN2800</t>
+  </si>
+  <si>
+    <t>GN2900</t>
+  </si>
+  <si>
+    <t>GN3000</t>
+  </si>
+  <si>
+    <t>gnr_name</t>
+  </si>
+  <si>
+    <t>발라드</t>
+  </si>
+  <si>
+    <t>댄스</t>
+  </si>
+  <si>
+    <t>랩/힙합</t>
+  </si>
+  <si>
+    <t>R&amp;B/Soul</t>
+  </si>
+  <si>
+    <t>인디음악</t>
+  </si>
+  <si>
+    <t>록/메탈</t>
+  </si>
+  <si>
+    <t>성인가요</t>
+  </si>
+  <si>
+    <t>포크/블루스</t>
+  </si>
+  <si>
+    <t>POP</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>어린이/태교</t>
+  </si>
+  <si>
+    <t>종교음악</t>
+  </si>
+  <si>
+    <t>국악</t>
+  </si>
+  <si>
+    <t>아이돌</t>
+  </si>
+  <si>
+    <t>일렉트로니카</t>
+  </si>
+  <si>
+    <t>EDM</t>
+  </si>
+  <si>
+    <t>뮤직테라피</t>
+  </si>
+  <si>
+    <t>뮤지컬</t>
+  </si>
+  <si>
+    <t>크리스마스</t>
+  </si>
+  <si>
+    <t>GN1100</t>
+  </si>
+  <si>
+    <t>GN1200</t>
+  </si>
+  <si>
+    <t>GN1300</t>
+  </si>
+  <si>
+    <t>GN1400</t>
+  </si>
+  <si>
+    <t>포크/블루스/컨트리</t>
+  </si>
+  <si>
+    <t>GN1500</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <t>GN1600</t>
+  </si>
+  <si>
+    <t>클래식</t>
+  </si>
+  <si>
+    <t>GN1700</t>
+  </si>
+  <si>
+    <t>재즈</t>
+  </si>
+  <si>
+    <t>GN1800</t>
+  </si>
+  <si>
+    <t>뉴에이지</t>
+  </si>
+  <si>
+    <t>GN1900</t>
+  </si>
+  <si>
+    <t>J-POP</t>
+  </si>
+  <si>
+    <t>GN2000</t>
+  </si>
+  <si>
+    <t>월드뮤직</t>
   </si>
 </sst>
 </file>
@@ -677,7 +852,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -693,6 +868,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,7 +907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -782,6 +963,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1470,6 +1660,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B39:F39"/>
     <mergeCell ref="B28:F28"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B18:F18"/>
@@ -1482,23 +1689,6 @@
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B40:F40"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:F45"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,8 +1704,8 @@
   </sheetPr>
   <dimension ref="B11:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1700,4 +1890,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA2D52E-7707-4084-AC84-20C8F990EA42}">
+  <dimension ref="B2:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="24">
+      <c r="B2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="19">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="19">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="19">
+        <v>12</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="19">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="19">
+        <v>22</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="19">
+        <v>32</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="19">
+        <v>39</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="19">
+        <v>50</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="19">
+        <v>56</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="19">
+        <v>65</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="24">
+      <c r="B13" s="19">
+        <v>80</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="19">
+        <v>90</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="19">
+        <v>100</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="24">
+      <c r="B16" s="19">
+        <v>109</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="19">
+        <v>117</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="19">
+        <v>128</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="19">
+        <v>144</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="19">
+        <v>155</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="19">
+        <v>163</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="19">
+        <v>176</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="19">
+        <v>187</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="19">
+        <v>198</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="19">
+        <v>215</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="19">
+        <v>218</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="19">
+        <v>225</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="24">
+      <c r="B28" s="19">
+        <v>232</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="19">
+        <v>237</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="19">
+        <v>242</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="19">
+        <v>249</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="19">
+        <v>253</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>